--- a/ctl-site/dist/assets/PROJETOS/PROJETO_3.xlsx
+++ b/ctl-site/dist/assets/PROJETOS/PROJETO_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ctl-angular\ctl-angular\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ctl-site\ctl-site\src\assets\PROJETOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18738611-431E-4313-98C9-33E07F0BD10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246DDCED-61B3-4F5C-BEBF-B67DF1130C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3996" yWindow="708" windowWidth="17280" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_TEST_1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="4">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -51,15 +51,8 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <valueMetadata count="4">
+  <valueMetadata count="3">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -68,9 +61,6 @@
     </bk>
     <bk>
       <rc t="1" v="2"/>
-    </bk>
-    <bk>
-      <rc t="1" v="3"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -178,7 +168,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -191,10 +181,6 @@
     <v>2</v>
     <v>5</v>
   </rv>
-  <rv s="0">
-    <v>3</v>
-    <v>5</v>
-  </rv>
 </rvData>
 </file>
 
@@ -212,7 +198,6 @@
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
   <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
 </richValueRels>
 </file>
 
@@ -481,7 +466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -512,11 +499,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
+    <row r="4" spans="1:3" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
